--- a/bots/crawl_ch/output/clothes_2022-07-25.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-07-25.xlsx
@@ -531,24 +531,24 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6075749001</t>
+          <t>6075745012</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  11 - 12</t>
+          <t>Avela Strumpfhose Madame Natural  11 - 12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-11-12/p/6075749001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-11-12/p/6075745012</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -577,29 +577,29 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  11 - 12 3.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Natural  11 - 12 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6031467017</t>
+          <t>6075749003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M</t>
+          <t>Avela Strumpfhose Top Size Noir  11 - 12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-m/p/6031467017</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-noir-11-12/p/6075749003</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -609,12 +609,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -623,34 +623,34 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M 24.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Noir  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6075745013</t>
+          <t>6031467017</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Noir  8.5 - 9</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz M</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-85-9/p/6075745013</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-m/p/6031467017</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -660,12 +660,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -674,51 +674,49 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Noir  8.5 - 9 5.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz M 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3875554005</t>
+          <t>6075745013</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Schwarz M</t>
+          <t>Avela Strumpfhose Madame Noir  8.5 - 9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-m/p/3875554005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-85-9/p/6075745013</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -727,40 +725,42 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Schwarz M 14.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Noir  8.5 - 9 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6031467009</t>
+          <t>3875554005</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weissXL</t>
+          <t>Naturaline Damen Bustier Schwarz M</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weissxl/p/6031467009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-m/p/3875554005</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -778,42 +778,40 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weissXL - Online kein Bestand 24.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Schwarz M 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3875554009</t>
+          <t>6031467009</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Weiss L</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weissXL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-weiss-l/p/3875554009</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weissxl/p/6031467009</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -822,7 +820,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -831,34 +829,34 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Weiss L 14.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weissXL - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3305779007</t>
+          <t>3875554009</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S weiss</t>
+          <t>Naturaline Damen Bustier Weiss L</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-weiss/p/3305779007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-weiss-l/p/3875554009</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -866,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -875,7 +873,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -889,35 +887,37 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S weiss 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Weiss L 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3305289015</t>
+          <t>3305779007</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L</t>
+          <t>Naturaline Damen Panty S weiss</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-weiss/p/3305779007</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -940,29 +940,29 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty S weiss 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6365980012</t>
+          <t>3305289015</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
+          <t>Naturaline Herren Slip weiss L</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -986,34 +986,34 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6031467006</t>
+          <t>6365980012</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1037,108 +1037,92 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6077158006</t>
+          <t>6031467006</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Noir One Size</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-noir-one-size/p/6077158006</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2.48/1ST</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Noir One Size 4.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6075745006</t>
+          <t>6077158006</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5</t>
+          <t>Avela Söckchen Ideal Noir One Size</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-noir-one-size/p/6077158006</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
         <v>0</v>
@@ -1150,43 +1134,59 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2.48/1ST</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5 5.95 Schweizer Franken</t>
+          <t>Avela Söckchen Ideal Noir One Size 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6075749003</t>
+          <t>6075745006</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  11 - 12</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-noir-11-12/p/6075749003</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1215,12 +1215,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  11 - 12 3.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-25 07:03:40</t>
+          <t>2022-07-25 20:57:52</t>
         </is>
       </c>
     </row>
